--- a/output/aggregate_tables/Area Statistics/area_67_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_67_summary.xlsx
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>98.45514455051632</v>
+        <v>98.53116904582204</v>
       </c>
     </row>
     <row r="3">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>85.59268093466891</v>
+        <v>85.65877337097206</v>
       </c>
     </row>
     <row r="9">

--- a/output/aggregate_tables/Area Statistics/area_67_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_67_summary.xlsx
@@ -9,10 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,8 +22,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -52,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -126,27 +128,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -178,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -196,14 +177,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,7 +1007,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
@@ -1049,6 +1029,230 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>53.08641975308642</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>40.74074074074074</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>6.172839506172839</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>6.172839506172839</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Tier 2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>46.42857142857143</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>89.28571428571429</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>10.71428571428571</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Tier 3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1323,159 +1527,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="8" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>0.7066323586228743</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1.754162455314656</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="n">
-        <v>0.02940517606246923</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>2.46079481393753</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>0.02940517606246923</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>28.37653045781574</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>70.44263361813991</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.180835924044367</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>98.81916407595565</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1.180835924044367</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,19 +1548,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="13" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="13" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1558,11 +1616,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1575,7 +1629,7 @@
       <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="11" t="n">
         <v>67</v>
       </c>
       <c r="B4" s="4" t="n">
@@ -1584,13 +1638,13 @@
       <c r="C4" s="4" t="n">
         <v>1.754162455314656</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="12" t="n">
         <v>0.02940517606246923</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>2.46079481393753</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="12" t="n">
         <v>0.02940517606246923</v>
       </c>
       <c r="G4" s="4" t="n">
@@ -1607,65 +1661,6 @@
       </c>
       <c r="K4" s="4" t="n">
         <v>1.180835924044367</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.7066323586228743</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>1.754162455314656</v>
-      </c>
-      <c r="D5" s="10" t="n">
-        <v>0.02940517606246923</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>2.46079481393753</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>0.02940517606246923</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>28.37653045781574</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>70.44263361813991</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.180835924044367</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>98.81916407595565</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.180835924044367</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,154 +1687,403 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="C1" s="8" t="n">
-        <v>67</v>
-      </c>
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Updated SoSI Categories</t>
-        </is>
-      </c>
+      <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>98.53116904582204</v>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>28.37653045781574</v>
-      </c>
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
+      <c r="A4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.6624517391172047</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>70.44263361813991</v>
+        <v>1.65248881728498</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>0.02501767606246923</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.314940556402185</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>0.02501767606246923</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>28.31040870415242</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>70.62044075651856</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.069150539329002</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>98.93084946067098</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.069150539329002</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
+      <c r="A5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>0.0425877990165394</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>0.1016736380296756</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>0.0043875</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.144261437046215</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>0.0043875</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>28.64991829931408</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>68.39849651805126</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.951585182634657</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>97.04841481736534</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2.951585182634657</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>0.001592820489130435</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>0.001592820489130435</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>Area 67 Total</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>0.7066323586228744</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1.754162455314656</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.02940517606246923</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.46079481393753</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>0.02940517606246923</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>28.37653045781575</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>70.44263361813989</v>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>1.180835924044367</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>98.81916407595565</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="J7" s="4" t="n">
+        <v>98.81916407595564</v>
+      </c>
+      <c r="K7" s="4" t="n">
         <v>1.180835924044367</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Previous SoSI Categories</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>85.65877337097206</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>46.57113770714658</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>45.99390214674801</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>7.434960146105405</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>92.56503985389459</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>7.434960146105405</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="n">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>98.3103602578468</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>28.37653045781574</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>70.44263361813991</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.180835924044367</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>98.81916407595565</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.180835924044367</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>98.30745974294956</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>46.57113770714658</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>45.99390214674801</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>7.434960146105405</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>92.56503985389459</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.434960146105405</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_67_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_67_summary.xlsx
@@ -1034,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1245,52 @@
       </c>
       <c r="N4" s="3" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>51.81818181818182</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>40.90909090909091</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>7.272727272727272</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>92.72727272727272</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>7.272727272727272</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1948,77 +1994,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -2036,54 +2070,46 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="11" t="n">
         <v>67</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>98.3103602578468</v>
+        <v>28.37653045781574</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>28.37653045781574</v>
+        <v>70.44263361813991</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>70.44263361813991</v>
+        <v>1.180835924044367</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>98.81916407595565</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>1.180835924044367</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>98.81916407595565</v>
-      </c>
       <c r="G4" s="4" t="n">
-        <v>1.180835924044367</v>
+        <v>47.09360415973406</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>98.30745974294956</v>
+        <v>45.5390362139465</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>46.57113770714658</v>
+        <v>7.367359626319428</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>45.99390214674801</v>
+        <v>92.63264037368054</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.434960146105405</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>92.56503985389459</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>7.434960146105405</v>
+        <v>7.367359626319428</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
